--- a/dist/main/Plantilla/plantillaDolar-Oasis.xlsx
+++ b/dist/main/Plantilla/plantillaDolar-Oasis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Documents\GitHub\Tabla-de-Amortizacion\dist\main\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Documents\GitHub\Tabla-de-Amortizacion\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26DA90-2606-41CC-9790-E885641F8D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903633F-0AF4-4CFC-8BF1-64AAB3C78D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BBF39F95-F655-4258-86B2-AB10BC559A4A}"/>
   </bookViews>
@@ -290,14 +290,14 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,7 +326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>151087</xdr:colOff>
+      <xdr:colOff>479535</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129197</xdr:rowOff>
     </xdr:to>
@@ -669,14 +669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EFEBE9-9740-471D-B90E-D3C1ACB74A8F}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
     <col min="5" max="6" width="14.7265625" style="11" customWidth="1"/>
@@ -720,13 +720,13 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -739,21 +739,21 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
